--- a/csv_parser/test-case-sources/test-cases-15-15.xlsx
+++ b/csv_parser/test-case-sources/test-cases-15-15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/24 - Test - Tout périmètre/15-15/Recette automatique/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1199" documentId="13_ncr:1_{342596FC-AF00-4A8E-B2B5-0A9EEF3A24F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5A38E97-E1C3-46C2-AD94-957F740F5AB7}"/>
+  <xr:revisionPtr revIDLastSave="1247" documentId="13_ncr:1_{342596FC-AF00-4A8E-B2B5-0A9EEF3A24F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78FC29BF-121F-4A25-987B-598B7FA4E451}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="502" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
+    <workbookView minimized="1" xWindow="675" yWindow="270" windowWidth="28365" windowHeight="14790" tabRatio="502" firstSheet="5" activeTab="9" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
   <sheets>
     <sheet name="Didier MOREL R1" sheetId="2" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="238">
   <si>
     <t>Périmètre</t>
   </si>
@@ -326,9 +326,6 @@
     <t>id patient</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient[0].idPat</t>
-  </si>
-  <si>
     <t>role opérateur note médicale 0</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
     <t>id patient note médicale 0</t>
   </si>
   <si>
-    <t>$.createCaseHealth.medicalNote[0].idPat</t>
-  </si>
-  <si>
     <t>id note médicale 0</t>
   </si>
   <si>
@@ -353,9 +347,6 @@
     <t>id patient note médicale 1</t>
   </si>
   <si>
-    <t>$.createCaseHealth.medicalNote[1].idPat</t>
-  </si>
-  <si>
     <t>id note médicale 1</t>
   </si>
   <si>
@@ -377,27 +368,15 @@
     <t>ID ressource 0</t>
   </si>
   <si>
-    <t>$.resourcesInfo.mobilizedResource[0].resourceId</t>
-  </si>
-  <si>
     <t>ID org ressource 0</t>
   </si>
   <si>
-    <t>$.resourcesInfo.mobilizedResource[0].orgId</t>
-  </si>
-  <si>
     <t>ID ressource 1</t>
   </si>
   <si>
-    <t>$.resourcesInfo.mobilizedResource[1].resourceId</t>
-  </si>
-  <si>
     <t>ID org ressource 1</t>
   </si>
   <si>
-    <t>$.resourcesInfo.mobilizedResource[1].orgId</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
@@ -416,15 +395,9 @@
     <t>$.createCaseHealthUpdate.medicalNote[0].operator.role</t>
   </si>
   <si>
-    <t>$.createCaseHealthUpdate.medicalNote[0].idPat</t>
-  </si>
-  <si>
     <t>id patient 0</t>
   </si>
   <si>
-    <t>$.createCaseHealthUpdate.patient[0].idPat</t>
-  </si>
-  <si>
     <t>End</t>
   </si>
   <si>
@@ -452,9 +425,6 @@
     <t>id patient note médicale 2</t>
   </si>
   <si>
-    <t>$.createCaseHealth.medicalNote[2].idPat</t>
-  </si>
-  <si>
     <t>id note médicale 2</t>
   </si>
   <si>
@@ -497,9 +467,6 @@
     <t>$.createCaseHealthUpdate.medicalNote[1].operator.role</t>
   </si>
   <si>
-    <t>$.createCaseHealthUpdate.medicalNote[1].idPat</t>
-  </si>
-  <si>
     <t>02b</t>
   </si>
   <si>
@@ -518,9 +485,6 @@
     <t>id patient décision 0</t>
   </si>
   <si>
-    <t>$.createCaseHealthUpdate.decision[0].idPat</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
@@ -536,9 +500,6 @@
     <t>type de contact  ressource 0</t>
   </si>
   <si>
-    <t>$.resourcesInfo.mobilizedResource[0]contact.type</t>
-  </si>
-  <si>
     <t>Ouardia Boudadi</t>
   </si>
   <si>
@@ -578,9 +539,6 @@
     <t>id patient 1</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient[1].idPat</t>
-  </si>
-  <si>
     <t>Transfert d’appel terminé et prise en charge côté 76A</t>
   </si>
   <si>
@@ -602,9 +560,6 @@
     <t>$.createCaseHealthUpdate.medicalNote[2].operator.role</t>
   </si>
   <si>
-    <t>$.createCaseHealthUpdate.medicalNote[2].idPat</t>
-  </si>
-  <si>
     <t>role opérateur note médicale 3</t>
   </si>
   <si>
@@ -614,9 +569,6 @@
     <t>id patient note médicale 3</t>
   </si>
   <si>
-    <t>$.createCaseHealthUpdate.medicalNote[3].idPat</t>
-  </si>
-  <si>
     <t>id note médicale 3</t>
   </si>
   <si>
@@ -629,15 +581,9 @@
     <t>id patient note médicale 4</t>
   </si>
   <si>
-    <t>$.createCaseHealthUpdate.medicalNote[4].idPat</t>
-  </si>
-  <si>
     <t>id note médicale 4</t>
   </si>
   <si>
-    <t>$.createCaseHealthUpdate.patient[1].idPat</t>
-  </si>
-  <si>
     <t>03b</t>
   </si>
   <si>
@@ -650,15 +596,9 @@
     <t>type Contact ressource 0</t>
   </si>
   <si>
-    <t>$.resourcesInfo.mobilizedResource[0].contact.type</t>
-  </si>
-  <si>
     <t>type Contact ressource 1</t>
   </si>
   <si>
-    <t>$.resourcesInfo.mobilizedResource[1].contact.type</t>
-  </si>
-  <si>
     <t>Sur</t>
   </si>
   <si>
@@ -710,9 +650,6 @@
     <t>Version modèle / vHost</t>
   </si>
   <si>
-    <t>1.0 / 15-15_v1.5</t>
-  </si>
-  <si>
     <t>04b</t>
   </si>
   <si>
@@ -749,21 +686,12 @@
     <t>ID demande partagé</t>
   </si>
   <si>
-    <t>$.resourcesInfo.mobilizedResource[0].requestId</t>
-  </si>
-  <si>
     <t>Nom de la ressource</t>
   </si>
   <si>
-    <t>$.resourcesInfo.mobilizedResource[0].name</t>
-  </si>
-  <si>
     <t>Nom de l'équipe</t>
   </si>
   <si>
-    <t>$.resourcesInfo.mobilizedResource[0].team.name</t>
-  </si>
-  <si>
     <t>Exp</t>
   </si>
   <si>
@@ -812,9 +740,6 @@
     <t>Rôle 2</t>
   </si>
   <si>
-    <t>$.resourcesInfo.mobilizedResource[0].missionId</t>
-  </si>
-  <si>
     <t>Appel Limitrophe et partage de ressources</t>
   </si>
   <si>
@@ -899,35 +824,122 @@
     <t>toutes les données en bleu sont créées par l'éditeur au partage du dossier (01), et donc à surcharger / changer avec la valeur de l'éditeur au moment de l'envoi sinon il ne peut pas réconcilier</t>
   </si>
   <si>
-    <t>$.createCaseHealth.medicalNote[0].idObs</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.medicalNote[1].idObs</t>
-  </si>
-  <si>
-    <t>$.createCaseHealthUpdate.medicalNote[0].idObs</t>
-  </si>
-  <si>
-    <t>$.createCaseHealthUpdate.medicalNote[1].idObs</t>
-  </si>
-  <si>
-    <t>$.createCaseHealthUpdate.medicalNote[2].idObs</t>
-  </si>
-  <si>
-    <t>$.createCaseHealthUpdate.medicalNote[3].idObs</t>
-  </si>
-  <si>
-    <t>$.createCaseHealthUpdate.medicalNote[4].idObs</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.medicalNote[2].idObs</t>
+    <t>$.createCaseHealth.patient[0].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.medicalNote[0].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.medicalNote[1].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.medicalNote[0].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.patient[0].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.medicalNote[2].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.medicalNote[1].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.decision[0].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.medicalNote[2].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.medicalNote[3].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.medicalNote[4].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.patient[1].patientId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.medicalNote[0].operator.medicalNoteId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.medicalNote[1].operator.medicalNoteId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.medicalNote[0].operator.medicalNoteId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.medicalNote[1].operator.medicalNoteId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.medicalNote[2].operator.medicalNoteId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.medicalNote[3].operator.medicalNoteId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.medicalNote[4].operator.medicalNoteId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.medicalNote[0].medicalNoteId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.medicalNote[1].medicalNoteId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.medicalNote[0].medicalNoteId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.medicalNote[2].medicalNoteId</t>
+  </si>
+  <si>
+    <t>$.createCaseHealthUpdate.medicalNote[1].medicalNoteId</t>
+  </si>
+  <si>
+    <t>$.resourcesInfo.resource[0].resourceId</t>
+  </si>
+  <si>
+    <t>$.resourcesInfo.resource[0].orgId</t>
+  </si>
+  <si>
+    <t>$.resourcesInfo.resource[1].resourceId</t>
+  </si>
+  <si>
+    <t>$.resourcesInfo.resource[1].orgId</t>
+  </si>
+  <si>
+    <t>$.resourcesInfo.resource[0].requestId</t>
+  </si>
+  <si>
+    <t>$.resourcesInfo.resource[0].name</t>
+  </si>
+  <si>
+    <t>$.resourcesInfo.resource[0].team.name</t>
+  </si>
+  <si>
+    <t>$.resourcesInfo.resource[0].missionId</t>
+  </si>
+  <si>
+    <t>$.resourcesInfo.resource[0]contact.type</t>
+  </si>
+  <si>
+    <t>$.resourcesInfo.resource[0].contact.type</t>
+  </si>
+  <si>
+    <t>$.resourcesInfo.resource[1].contact.type</t>
+  </si>
+  <si>
+    <t>2.0 / 15-15_v2.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,7 +1044,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="5" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="9" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF66FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1314,7 +1340,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,7 +1369,6 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1374,6 +1398,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,8 +1408,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
       <color rgb="FF6600CC"/>
-      <color rgb="FFFF66FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1784,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39679EB-3E9B-472F-B5A5-82E3B98361DA}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,41 +1831,41 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F1" s="35" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="64"/>
+        <v>237</v>
+      </c>
+      <c r="H2" s="63"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="55" t="s">
         <v>3</v>
       </c>
@@ -1850,15 +1876,15 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="9" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
@@ -1867,15 +1893,15 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="9" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -1884,12 +1910,12 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -1916,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -1935,7 +1961,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>13</v>
@@ -1949,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>17</v>
@@ -2074,8 +2100,8 @@
       <c r="J16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>35</v>
+      <c r="K16" s="85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2084,10 +2110,10 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="J17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2096,10 +2122,10 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="J18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="K18" s="85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2108,10 +2134,10 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="J19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="87" t="s">
-        <v>226</v>
+        <v>38</v>
+      </c>
+      <c r="K19" s="86" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2120,10 +2146,10 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="J20" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2132,10 +2158,10 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="J21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="K21" s="85" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2144,18 +2170,18 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="J22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="87" t="s">
-        <v>227</v>
+        <v>42</v>
+      </c>
+      <c r="K22" s="86" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>17</v>
@@ -2164,13 +2190,13 @@
         <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="7"/>
@@ -2186,7 +2212,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2196,10 +2222,10 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="J25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="K25" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2209,10 +2235,10 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="J26" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="K26" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2222,10 +2248,10 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="J27" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="K27" s="87" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2235,18 +2261,18 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="J28" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="K28" s="87" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>17</v>
@@ -2255,13 +2281,13 @@
         <v>18</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="7"/>
@@ -2278,7 +2304,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2288,10 +2314,10 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="J31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2301,10 +2327,10 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="J32" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="K32" s="85" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2314,10 +2340,10 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="J33" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="87" t="s">
-        <v>228</v>
+        <v>38</v>
+      </c>
+      <c r="K33" s="86" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2327,18 +2353,18 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="J34" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="K34" s="85" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>17</v>
@@ -2347,13 +2373,13 @@
         <v>18</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="7"/>
@@ -2370,7 +2396,7 @@
         <v>22</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2380,18 +2406,18 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="J37" s="27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>17</v>
@@ -2400,13 +2426,13 @@
         <v>18</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="7"/>
@@ -2423,7 +2449,7 @@
         <v>22</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2433,18 +2459,18 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="J40" s="27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>17</v>
@@ -2453,13 +2479,13 @@
         <v>18</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="7"/>
@@ -2476,7 +2502,7 @@
         <v>22</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2486,33 +2512,33 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="J43" s="27" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="7"/>
@@ -2529,7 +2555,7 @@
         <v>22</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2539,33 +2565,33 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="J46" s="27" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="7"/>
@@ -2582,7 +2608,7 @@
         <v>22</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2592,10 +2618,10 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="J49" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>52</v>
+        <v>152</v>
+      </c>
+      <c r="K49" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2605,10 +2631,10 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="J50" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>54</v>
+        <v>153</v>
+      </c>
+      <c r="K50" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2618,10 +2644,10 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="J51" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>176</v>
+        <v>154</v>
+      </c>
+      <c r="K51" s="87" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2630,11 +2656,11 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="J52" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="K52" s="74" t="s">
-        <v>178</v>
+      <c r="J52" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="K52" s="87" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2643,16 +2669,16 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="J53" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="K53" s="74" t="s">
-        <v>180</v>
+      <c r="J53" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="K53" s="87" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
@@ -2692,11 +2718,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB882596-EB98-4B58-9CD2-1760F1642B6C}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,27 +2741,27 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F1" s="35" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -2743,15 +2769,15 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -2760,33 +2786,33 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="9" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="23" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="9" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2794,12 +2820,12 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -2845,7 +2871,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>13</v>
@@ -2856,25 +2882,25 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="51"/>
@@ -2955,7 +2981,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>31</v>
@@ -2971,7 +2997,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>33</v>
@@ -2987,10 +3013,10 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="K16" s="85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3003,10 +3029,10 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>119</v>
+        <v>105</v>
+      </c>
+      <c r="K17" s="85" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3017,10 +3043,10 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3031,10 +3057,10 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="K19" s="85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3045,10 +3071,10 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="87" t="s">
-        <v>226</v>
+        <v>38</v>
+      </c>
+      <c r="K20" s="86" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3059,10 +3085,10 @@
       <c r="H21" s="21"/>
       <c r="I21" s="50"/>
       <c r="J21" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3073,10 +3099,10 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="K22" s="85" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3087,33 +3113,33 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="87" t="s">
-        <v>227</v>
+        <v>42</v>
+      </c>
+      <c r="K23" s="86" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
@@ -3132,15 +3158,15 @@
         <v>22</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
-        <v>122</v>
+      <c r="A26" s="70" t="s">
+        <v>108</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>17</v>
@@ -3149,32 +3175,32 @@
         <v>18</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="67" t="s">
+    <row r="27" spans="1:11" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="77"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="68" t="s">
-        <v>63</v>
+      <c r="K27" s="67" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3186,25 +3212,25 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="68" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="77"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="85" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3216,10 +3242,10 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="87" t="s">
-        <v>228</v>
+        <v>38</v>
+      </c>
+      <c r="K30" s="86" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3231,25 +3257,25 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="77"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="K31" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" s="68" t="s">
-        <v>92</v>
+      <c r="K32" s="85" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3261,10 +3287,10 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K33" s="87" t="s">
-        <v>229</v>
+        <v>42</v>
+      </c>
+      <c r="K33" s="86" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3276,25 +3302,25 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="27" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35" s="68" t="s">
-        <v>127</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="77"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="85" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3306,10 +3332,10 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36" s="87" t="s">
-        <v>230</v>
+        <v>68</v>
+      </c>
+      <c r="K36" s="86" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3321,25 +3347,25 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="27" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="K38" s="68" t="s">
-        <v>131</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="77"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38" s="85" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3351,10 +3377,10 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="K39" s="87" t="s">
-        <v>231</v>
+        <v>116</v>
+      </c>
+      <c r="K39" s="86" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3366,25 +3392,25 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="27" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="K41" s="68" t="s">
-        <v>136</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="77"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="K41" s="85" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3396,48 +3422,48 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="K42" s="87" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="K43" s="68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="K44" s="68" t="s">
-        <v>138</v>
+        <v>120</v>
+      </c>
+      <c r="K42" s="86" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="77"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="77"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="K44" s="85" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71" t="s">
-        <v>139</v>
+      <c r="A45" s="70" t="s">
+        <v>121</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>17</v>
@@ -3446,31 +3472,31 @@
         <v>18</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
     </row>
-    <row r="46" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="67" t="s">
+    <row r="46" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="80"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="68" t="s">
-        <v>50</v>
+      <c r="K46" s="67" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3481,10 +3507,10 @@
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>143</v>
+        <v>124</v>
+      </c>
+      <c r="K47" s="87" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3496,10 +3522,10 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="K48" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3511,10 +3537,10 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="K49" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3526,10 +3552,10 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>145</v>
+        <v>125</v>
+      </c>
+      <c r="K50" s="87" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3541,10 +3567,10 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="K51" s="87" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3556,18 +3582,18 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K52" s="19" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="K52" s="87" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="71" t="s">
-        <v>155</v>
+      <c r="A53" s="70" t="s">
+        <v>135</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>17</v>
@@ -3576,66 +3602,66 @@
         <v>18</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="H53" s="47"/>
       <c r="I53" s="47"/>
       <c r="J53" s="34"/>
       <c r="K53" s="34"/>
     </row>
-    <row r="54" spans="1:11" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="J54" s="67" t="s">
+    <row r="54" spans="1:11" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="J54" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="68" t="s">
-        <v>159</v>
+      <c r="K54" s="67" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
       <c r="J55" s="27" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="75" t="s">
-        <v>164</v>
+      <c r="A56" s="73" t="s">
+        <v>143</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="H56" s="47"/>
       <c r="I56" s="47"/>
@@ -3643,84 +3669,84 @@
       <c r="K56" s="34"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="76"/>
+      <c r="A57" s="74"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="I57" s="69"/>
+      <c r="I57" s="68"/>
       <c r="J57" s="27" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="81"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
       <c r="J58" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="75" t="s">
-        <v>170</v>
+      <c r="A59" s="73" t="s">
+        <v>149</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="H59" s="47"/>
       <c r="I59" s="47"/>
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
     </row>
-    <row r="60" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="K60" s="78" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
+    <row r="60" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="K60" s="87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
       <c r="J61" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3730,10 +3756,10 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="J62" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="K62" s="19" t="s">
-        <v>52</v>
+        <v>152</v>
+      </c>
+      <c r="K62" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3743,18 +3769,18 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="J63" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="K63" s="87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="K63" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="71" t="s">
-        <v>199</v>
-      </c>
       <c r="B64" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>17</v>
@@ -3763,51 +3789,51 @@
         <v>18</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="H64" s="47"/>
       <c r="I64" s="47"/>
       <c r="J64" s="34"/>
       <c r="K64" s="34"/>
     </row>
-    <row r="65" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="J65" s="67" t="s">
+    <row r="65" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="J65" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K65" s="68" t="s">
-        <v>151</v>
+      <c r="K65" s="67" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
       <c r="J66" s="27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="71" t="s">
-        <v>200</v>
+      <c r="A67" s="70" t="s">
+        <v>175</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>17</v>
@@ -3816,101 +3842,101 @@
         <v>18</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="H67" s="47"/>
       <c r="I67" s="47"/>
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
     </row>
-    <row r="68" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="J68" s="67" t="s">
+    <row r="68" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="69"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="J68" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K68" s="68" t="s">
-        <v>151</v>
+      <c r="K68" s="67" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
       <c r="J69" s="27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="H70" s="47"/>
       <c r="I70" s="47"/>
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
     </row>
-    <row r="71" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="J71" s="77" t="s">
+    <row r="71" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="69"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="J71" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="K71" s="78" t="s">
-        <v>151</v>
+      <c r="K71" s="76" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
       <c r="J72" s="27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -3950,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB89636F-D901-42EC-BB0A-8F708FA36466}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3970,41 +3996,41 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F1" s="35" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="64"/>
+        <v>237</v>
+      </c>
+      <c r="H2" s="63"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
@@ -4013,42 +4039,42 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="9" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="23"/>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="16"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -4075,7 +4101,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -4094,7 +4120,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>13</v>
@@ -4111,10 +4137,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
@@ -4233,8 +4259,8 @@
       <c r="J16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>35</v>
+      <c r="K16" s="85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4243,10 +4269,10 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="J17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4255,10 +4281,10 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="J18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="K18" s="85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4267,10 +4293,10 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="J19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="87" t="s">
-        <v>226</v>
+        <v>38</v>
+      </c>
+      <c r="K19" s="86" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4279,10 +4305,10 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="J20" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4291,10 +4317,10 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="J21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="K21" s="85" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4303,33 +4329,33 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="J22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="87" t="s">
-        <v>227</v>
+        <v>42</v>
+      </c>
+      <c r="K22" s="86" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="7"/>
@@ -4345,7 +4371,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4355,10 +4381,10 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="J25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="K25" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -4368,10 +4394,10 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="J26" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="K26" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4381,10 +4407,10 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="J27" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="K27" s="87" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4394,33 +4420,33 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="J28" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="K28" s="87" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H29" s="51"/>
       <c r="I29" s="49"/>
@@ -4437,7 +4463,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4447,10 +4473,10 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="J31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4460,10 +4486,10 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="J32" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="K32" s="85" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4473,10 +4499,10 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="J33" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="87" t="s">
-        <v>228</v>
+        <v>38</v>
+      </c>
+      <c r="K33" s="86" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4486,177 +4512,177 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="J34" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="K34" s="85" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="60" t="s">
-        <v>122</v>
+      <c r="A35" s="59" t="s">
+        <v>108</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="H35" s="61"/>
+        <v>129</v>
+      </c>
+      <c r="F35" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="60"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="63"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
     </row>
     <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
       <c r="J36" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
       <c r="J37" s="27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
-        <v>139</v>
+      <c r="A38" s="59" t="s">
+        <v>121</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="G38" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="61"/>
+        <v>129</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="60"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="63"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="62"/>
     </row>
     <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
       <c r="J39" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
       <c r="J40" s="27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
-        <v>155</v>
+      <c r="A41" s="59" t="s">
+        <v>135</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="F41" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="H41" s="61"/>
+        <v>136</v>
+      </c>
+      <c r="F41" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="60"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="63"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="62"/>
     </row>
     <row r="42" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
       <c r="J42" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
       <c r="J43" s="27" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="72" t="s">
-        <v>164</v>
+      <c r="A44" s="71" t="s">
+        <v>143</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>17</v>
@@ -4665,18 +4691,18 @@
         <v>18</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="G44" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="H44" s="61"/>
+        <v>144</v>
+      </c>
+      <c r="F44" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="60"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="63"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="62"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -4684,33 +4710,33 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="K45" s="68" t="s">
-        <v>169</v>
+      <c r="I45" s="68"/>
+      <c r="J45" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="K45" s="67" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="J46" s="67" t="s">
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="J46" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="68" t="s">
-        <v>168</v>
+      <c r="K46" s="67" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="72" t="s">
-        <v>170</v>
+      <c r="A47" s="71" t="s">
+        <v>149</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>17</v>
@@ -4719,75 +4745,75 @@
         <v>18</v>
       </c>
       <c r="E47" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="60"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="62"/>
+    </row>
+    <row r="48" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48" s="87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="J49" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="H47" s="61"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="63"/>
-    </row>
-    <row r="48" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="K48" s="68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="J49" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" s="68" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="50" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
       <c r="J50" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>52</v>
+        <v>152</v>
+      </c>
+      <c r="K50" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
       <c r="J51" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>54</v>
+        <v>153</v>
+      </c>
+      <c r="K51" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -4809,13 +4835,13 @@
     <mergeCell ref="A6:F6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E22 E30:E34 E24:E28 E36:E37 E39:E40 E42:E43 E45:E46 E48:E51 E52:E326" xr:uid="{0CBAC004-A346-4EF0-A536-EFF96904234D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E22 E30:E34 E24:E28 E36:E37 E39:E40 E42:E43 E45:E46 E48:E326" xr:uid="{0CBAC004-A346-4EF0-A536-EFF96904234D}">
       <formula1>"RC-EDA,RS-EDA,EMSI,EMSI-DC,EMSI-RDC,EMSI-EO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E23 E29 E35 E38 E41 E47:E48 E44:E45 E48" xr:uid="{53E439B8-6604-46A3-98A3-88E6DE36706F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E23 E29 E35 E38 E41 E44:E45 E47:E48" xr:uid="{53E439B8-6604-46A3-98A3-88E6DE36706F}">
       <formula1>"RS-EDA,RS-EDA,RS-EDA-MAJ,RS-RI,RS-DR,RS-RR,RS-SR,RC-EDA,EMSI,EMSI-DC,EMSI-RDC,EMSI-EO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D287:D328 D23 D9 D29 D47:D48 D35 D38 D41 D44:D45 D48" xr:uid="{15ECC587-C584-4486-8A24-1CFE53554687}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D287:D328 D23 D9 D29 D35 D38 D41 D44:D45 D47:D48" xr:uid="{15ECC587-C584-4486-8A24-1CFE53554687}">
       <formula1>"Envoi,Réception"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4829,8 +4855,8 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4849,43 +4875,43 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F1" s="35" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="64"/>
+        <v>237</v>
+      </c>
+      <c r="H2" s="63"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4894,29 +4920,29 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="9" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="I4" s="8"/>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="9" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4925,12 +4951,12 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="18"/>
@@ -4957,7 +4983,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -4976,7 +5002,7 @@
       </c>
       <c r="H8" s="44"/>
       <c r="I8" s="44" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>13</v>
@@ -4990,7 +5016,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>17</v>
@@ -5002,10 +5028,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -5070,7 +5096,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="21"/>
       <c r="J13" s="27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>31</v>
@@ -5086,7 +5112,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="21"/>
       <c r="J14" s="27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>33</v>
@@ -5104,8 +5130,8 @@
       <c r="J15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="19" t="s">
-        <v>35</v>
+      <c r="K15" s="85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5115,10 +5141,10 @@
       <c r="E16" s="2"/>
       <c r="I16" s="20"/>
       <c r="J16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5127,10 +5153,10 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="J17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="K17" s="85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -5139,10 +5165,10 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="J18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="87" t="s">
-        <v>226</v>
+        <v>38</v>
+      </c>
+      <c r="K18" s="86" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -5151,10 +5177,10 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="J19" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -5163,10 +5189,10 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="J20" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="K20" s="85" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -5175,10 +5201,10 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="J21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="87" t="s">
-        <v>227</v>
+        <v>42</v>
+      </c>
+      <c r="K21" s="86" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -5187,10 +5213,10 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="J22" s="27" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5200,10 +5226,10 @@
       <c r="E23" s="2"/>
       <c r="I23" s="20"/>
       <c r="J23" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="K23" s="85" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5212,18 +5238,18 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="J24" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="87" t="s">
-        <v>233</v>
+        <v>68</v>
+      </c>
+      <c r="K24" s="86" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>17</v>
@@ -5232,13 +5258,13 @@
         <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H25" s="43"/>
       <c r="I25" s="42"/>
@@ -5254,7 +5280,7 @@
         <v>22</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5264,10 +5290,10 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="J27" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="K27" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -5277,18 +5303,18 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="J28" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="K28" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>17</v>
@@ -5297,13 +5323,13 @@
         <v>18</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
@@ -5320,7 +5346,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -5330,10 +5356,10 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="J31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -5343,10 +5369,10 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="J32" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="K32" s="85" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -5356,18 +5382,18 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="J33" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="87" t="s">
-        <v>228</v>
+        <v>38</v>
+      </c>
+      <c r="K33" s="86" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>17</v>
@@ -5376,13 +5402,13 @@
         <v>18</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
@@ -5390,52 +5416,52 @@
       <c r="K34" s="34"/>
     </row>
     <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
       <c r="J35" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
       <c r="J36" s="27" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="H37" s="43"/>
       <c r="I37" s="43"/>
@@ -5452,7 +5478,7 @@
         <v>22</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -5462,33 +5488,33 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="J39" s="27" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="43"/>
@@ -5505,7 +5531,7 @@
         <v>22</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -5515,10 +5541,10 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="J42" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>52</v>
+        <v>152</v>
+      </c>
+      <c r="K42" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -5528,10 +5554,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="J43" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>54</v>
+        <v>153</v>
+      </c>
+      <c r="K43" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -5541,10 +5567,10 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="J44" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>176</v>
+        <v>154</v>
+      </c>
+      <c r="K44" s="87" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -5553,11 +5579,11 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="J45" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="K45" s="74" t="s">
-        <v>178</v>
+      <c r="J45" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="K45" s="87" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -5566,16 +5592,16 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="J46" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="K46" s="74" t="s">
-        <v>180</v>
+      <c r="J46" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="K46" s="87" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>17</v>
@@ -5584,16 +5610,16 @@
         <v>16</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
@@ -5601,34 +5627,34 @@
       <c r="K47" s="34"/>
     </row>
     <row r="48" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
       <c r="J48" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
       <c r="J49" s="27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -5668,8 +5694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC5DFA7-43BA-4419-B602-BC3DB1BA4C89}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5687,44 +5713,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F1" s="65" t="s">
-        <v>196</v>
+      <c r="F1" s="64" t="s">
+        <v>172</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="64"/>
+        <v>237</v>
+      </c>
+      <c r="H2" s="63"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -5733,41 +5759,41 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="9" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="I4" s="8"/>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="9" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="16"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="18"/>
@@ -5794,7 +5820,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -5813,7 +5839,7 @@
       </c>
       <c r="H8" s="44"/>
       <c r="I8" s="44" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>13</v>
@@ -5830,19 +5856,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="15"/>
@@ -5907,7 +5933,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="21"/>
       <c r="J13" s="27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>31</v>
@@ -5923,7 +5949,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="21"/>
       <c r="J14" s="27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>33</v>
@@ -5941,8 +5967,8 @@
       <c r="J15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="19" t="s">
-        <v>35</v>
+      <c r="K15" s="85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5952,10 +5978,10 @@
       <c r="E16" s="2"/>
       <c r="I16" s="20"/>
       <c r="J16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5964,10 +5990,10 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="J17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="K17" s="85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -5976,10 +6002,10 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="J18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="87" t="s">
-        <v>226</v>
+        <v>38</v>
+      </c>
+      <c r="K18" s="86" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -5988,10 +6014,10 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="J19" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6000,10 +6026,10 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="J20" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="K20" s="85" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6012,10 +6038,10 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="J21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="87" t="s">
-        <v>227</v>
+        <v>42</v>
+      </c>
+      <c r="K21" s="86" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6024,10 +6050,10 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="J22" s="27" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6037,10 +6063,10 @@
       <c r="E23" s="2"/>
       <c r="I23" s="20"/>
       <c r="J23" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="K23" s="85" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6049,33 +6075,33 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="J24" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="87" t="s">
-        <v>233</v>
+        <v>68</v>
+      </c>
+      <c r="K24" s="86" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H25" s="43"/>
       <c r="I25" s="42"/>
@@ -6091,7 +6117,7 @@
         <v>22</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -6101,10 +6127,10 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="J27" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="K27" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -6114,33 +6140,33 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="J28" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="K28" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
@@ -6157,7 +6183,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6167,10 +6193,10 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="J31" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -6180,10 +6206,10 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="J32" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="K32" s="85" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -6193,33 +6219,33 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="J33" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="87" t="s">
-        <v>228</v>
+        <v>38</v>
+      </c>
+      <c r="K33" s="86" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
-        <v>122</v>
+      <c r="A34" s="59" t="s">
+        <v>108</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
@@ -6227,37 +6253,37 @@
       <c r="K34" s="34"/>
     </row>
     <row r="35" spans="1:11" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
       <c r="J35" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
       <c r="J36" s="27" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71" t="s">
-        <v>139</v>
+      <c r="A37" s="70" t="s">
+        <v>121</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>17</v>
@@ -6266,13 +6292,13 @@
         <v>18</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="H37" s="43"/>
       <c r="I37" s="43"/>
@@ -6285,33 +6311,33 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="K38" s="68" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="J39" s="67" t="s">
+      <c r="I38" s="68"/>
+      <c r="J38" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="K38" s="67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="J39" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="68" t="s">
-        <v>168</v>
+      <c r="K39" s="67" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71" t="s">
-        <v>182</v>
+      <c r="A40" s="70" t="s">
+        <v>158</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>17</v>
@@ -6320,44 +6346,44 @@
         <v>18</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="43"/>
       <c r="J40" s="34"/>
       <c r="K40" s="34"/>
     </row>
-    <row r="41" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="K41" s="68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="J42" s="67" t="s">
+    <row r="41" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="69"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="K41" s="87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="J42" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="68" t="s">
-        <v>50</v>
+      <c r="K42" s="67" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -6367,10 +6393,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="J43" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>52</v>
+        <v>152</v>
+      </c>
+      <c r="K43" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -6380,18 +6406,18 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="J44" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>54</v>
+        <v>153</v>
+      </c>
+      <c r="K44" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71" t="s">
-        <v>183</v>
+      <c r="A45" s="70" t="s">
+        <v>159</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>17</v>
@@ -6400,48 +6426,48 @@
         <v>18</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="H45" s="43"/>
       <c r="I45" s="43"/>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
     </row>
-    <row r="46" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="J46" s="67" t="s">
+    <row r="46" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="J46" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="68" t="s">
-        <v>151</v>
+      <c r="K46" s="67" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
       <c r="J47" s="27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -6482,8 +6508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3374E1A5-3396-4CEE-AAFE-754514C3E6C7}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6503,27 +6529,27 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F1" s="35" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -6531,15 +6557,15 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -6548,15 +6574,15 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -6564,15 +6590,15 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="9" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -6580,12 +6606,12 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="14"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -6612,7 +6638,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -6631,7 +6657,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="45" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>13</v>
@@ -6642,10 +6668,10 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>17</v>
@@ -6657,10 +6683,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6725,7 +6751,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>31</v>
@@ -6741,7 +6767,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>33</v>
@@ -6757,10 +6783,10 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="K15" s="85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6771,10 +6797,10 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6783,10 +6809,10 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="J17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="K17" s="85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6795,18 +6821,18 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="J18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="87" t="s">
-        <v>226</v>
+        <v>38</v>
+      </c>
+      <c r="K18" s="86" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>17</v>
@@ -6815,13 +6841,13 @@
         <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
@@ -6838,7 +6864,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6848,10 +6874,10 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="J21" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6861,10 +6887,10 @@
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="J22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="K22" s="85" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6876,10 +6902,10 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="87" t="s">
-        <v>228</v>
+        <v>38</v>
+      </c>
+      <c r="K23" s="86" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6889,10 +6915,10 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="J24" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6902,10 +6928,10 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="J25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>92</v>
+        <v>41</v>
+      </c>
+      <c r="K25" s="85" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6915,10 +6941,10 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="J26" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="87" t="s">
-        <v>229</v>
+        <v>42</v>
+      </c>
+      <c r="K26" s="86" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6928,18 +6954,18 @@
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="J27" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="K27" s="85" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>17</v>
@@ -6948,13 +6974,13 @@
         <v>18</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
@@ -6973,7 +6999,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -6983,10 +7009,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="J30" s="27" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6996,18 +7022,18 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="J31" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>99</v>
+        <v>87</v>
+      </c>
+      <c r="K31" s="85" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>17</v>
@@ -7016,13 +7042,13 @@
         <v>18</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -7039,7 +7065,7 @@
         <v>22</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -7049,10 +7075,10 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="J34" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="K34" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -7064,10 +7090,10 @@
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="J35" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="K35" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -7079,10 +7105,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>197</v>
+        <v>91</v>
+      </c>
+      <c r="K36" s="87" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7092,15 +7118,15 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="J37" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="K37" s="87" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -7140,8 +7166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E70C2-76D5-425A-A095-7F5F33564D67}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7160,27 +7186,27 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F1" s="35" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -7188,15 +7214,15 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -7205,15 +7231,15 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -7221,15 +7247,15 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="9" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -7237,12 +7263,12 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="14"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -7269,7 +7295,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -7288,7 +7314,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="45" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>13</v>
@@ -7299,25 +7325,25 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7382,7 +7408,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>31</v>
@@ -7398,7 +7424,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>33</v>
@@ -7414,10 +7440,10 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="K15" s="85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7428,10 +7454,10 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -7440,10 +7466,10 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="J17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="K17" s="85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -7452,33 +7478,33 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="J18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="87" t="s">
-        <v>226</v>
+        <v>38</v>
+      </c>
+      <c r="K18" s="86" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
@@ -7495,7 +7521,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7505,10 +7531,10 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="J21" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7518,10 +7544,10 @@
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="J22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="K22" s="85" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7533,10 +7559,10 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="87" t="s">
-        <v>228</v>
+        <v>38</v>
+      </c>
+      <c r="K23" s="86" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7546,10 +7572,10 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="J24" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7559,10 +7585,10 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="J25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>92</v>
+        <v>41</v>
+      </c>
+      <c r="K25" s="85" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7572,10 +7598,10 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="J26" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="87" t="s">
-        <v>229</v>
+        <v>42</v>
+      </c>
+      <c r="K26" s="86" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7585,33 +7611,33 @@
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="J27" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="K27" s="85" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
@@ -7630,7 +7656,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -7640,10 +7666,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="J30" s="27" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -7653,33 +7679,33 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="J31" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>99</v>
+        <v>87</v>
+      </c>
+      <c r="K31" s="85" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -7696,7 +7722,7 @@
         <v>22</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -7706,10 +7732,10 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="J34" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="K34" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -7721,10 +7747,10 @@
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="J35" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="K35" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -7736,10 +7762,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>197</v>
+        <v>91</v>
+      </c>
+      <c r="K36" s="87" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7749,10 +7775,10 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="J37" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="K37" s="87" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -7762,10 +7788,10 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="J38" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="K38" s="58" t="s">
-        <v>178</v>
+        <v>155</v>
+      </c>
+      <c r="K38" s="87" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7775,15 +7801,15 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="J39" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="K39" s="58" t="s">
-        <v>180</v>
+        <v>156</v>
+      </c>
+      <c r="K39" s="87" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -7824,7 +7850,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7844,27 +7870,27 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F1" s="35" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -7872,15 +7898,15 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -7889,30 +7915,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="23"/>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="9" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -7920,12 +7946,12 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -7971,7 +7997,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>13</v>
@@ -7982,10 +8008,10 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>17</v>
@@ -7997,10 +8023,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -8081,7 +8107,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>31</v>
@@ -8097,7 +8123,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>33</v>
@@ -8113,10 +8139,10 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="K16" s="85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -8127,10 +8153,10 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -8141,10 +8167,10 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="K18" s="85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -8155,18 +8181,18 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="87" t="s">
-        <v>226</v>
+        <v>38</v>
+      </c>
+      <c r="K19" s="86" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>17</v>
@@ -8175,13 +8201,13 @@
         <v>18</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="48"/>
@@ -8196,13 +8222,13 @@
       <c r="G21" s="20"/>
       <c r="H21" s="21"/>
       <c r="I21" s="54" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K21" s="53" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8217,12 +8243,12 @@
         <v>22</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -8264,7 +8290,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8284,27 +8310,27 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F1" s="35" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -8312,15 +8338,15 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -8329,30 +8355,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="23"/>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="9" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -8360,12 +8386,12 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -8411,7 +8437,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>13</v>
@@ -8422,25 +8448,25 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -8521,7 +8547,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>31</v>
@@ -8537,7 +8563,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>33</v>
@@ -8553,10 +8579,10 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="K16" s="85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -8567,10 +8593,10 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -8581,10 +8607,10 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="K18" s="85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -8595,33 +8621,33 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="87" t="s">
-        <v>226</v>
+        <v>38</v>
+      </c>
+      <c r="K19" s="86" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="48"/>
@@ -8636,13 +8662,13 @@
       <c r="G21" s="20"/>
       <c r="H21" s="21"/>
       <c r="I21" s="54" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K21" s="53" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8657,12 +8683,12 @@
         <v>22</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -8704,10 +8730,10 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8726,27 +8752,27 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F1" s="35" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -8754,15 +8780,15 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -8771,15 +8797,15 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="9" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -8787,15 +8813,15 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="9" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -8803,12 +8829,12 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -8854,7 +8880,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>13</v>
@@ -8865,10 +8891,10 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>17</v>
@@ -8880,10 +8906,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="51"/>
@@ -8964,7 +8990,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>31</v>
@@ -8980,7 +9006,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>33</v>
@@ -8996,10 +9022,10 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="K16" s="85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9012,10 +9038,10 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>119</v>
+        <v>105</v>
+      </c>
+      <c r="K17" s="85" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -9026,10 +9052,10 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9040,10 +9066,10 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="K19" s="85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9054,10 +9080,10 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="87" t="s">
-        <v>226</v>
+        <v>38</v>
+      </c>
+      <c r="K20" s="86" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -9068,10 +9094,10 @@
       <c r="H21" s="21"/>
       <c r="I21" s="50"/>
       <c r="J21" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9082,10 +9108,10 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="K22" s="85" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -9096,18 +9122,18 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="87" t="s">
-        <v>227</v>
+        <v>42</v>
+      </c>
+      <c r="K23" s="86" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>17</v>
@@ -9116,13 +9142,13 @@
         <v>18</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
@@ -9137,13 +9163,13 @@
       <c r="G25" s="20"/>
       <c r="H25" s="21"/>
       <c r="I25" s="54" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J25" s="52" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K25" s="53" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9158,30 +9184,30 @@
         <v>22</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
@@ -9200,7 +9226,7 @@
         <v>22</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9212,10 +9238,10 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9227,10 +9253,10 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="K30" s="85" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9242,10 +9268,10 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="87" t="s">
-        <v>228</v>
+        <v>38</v>
+      </c>
+      <c r="K31" s="86" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9257,10 +9283,10 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9272,10 +9298,10 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>92</v>
+        <v>41</v>
+      </c>
+      <c r="K33" s="85" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9287,10 +9313,10 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34" s="87" t="s">
-        <v>229</v>
+        <v>42</v>
+      </c>
+      <c r="K34" s="86" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9302,10 +9328,10 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="27" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9317,10 +9343,10 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>127</v>
+        <v>67</v>
+      </c>
+      <c r="K36" s="85" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9332,10 +9358,10 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37" s="87" t="s">
-        <v>230</v>
+        <v>68</v>
+      </c>
+      <c r="K37" s="86" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9347,10 +9373,10 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="27" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9362,10 +9388,10 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>131</v>
+        <v>115</v>
+      </c>
+      <c r="K39" s="85" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9377,10 +9403,10 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="K40" s="87" t="s">
-        <v>231</v>
+        <v>116</v>
+      </c>
+      <c r="K40" s="86" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9392,10 +9418,10 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="27" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9407,10 +9433,10 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>136</v>
+        <v>119</v>
+      </c>
+      <c r="K42" s="85" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9422,10 +9448,10 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="K43" s="87" t="s">
-        <v>232</v>
+        <v>120</v>
+      </c>
+      <c r="K43" s="86" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9437,10 +9463,10 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="K44" s="85" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9452,33 +9478,33 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>138</v>
+        <v>105</v>
+      </c>
+      <c r="K45" s="85" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
@@ -9496,7 +9522,7 @@
         <v>22</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -9507,10 +9533,10 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>143</v>
+        <v>124</v>
+      </c>
+      <c r="K48" s="87" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -9522,10 +9548,10 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="K49" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -9537,10 +9563,10 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="K50" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -9552,10 +9578,10 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>145</v>
+        <v>125</v>
+      </c>
+      <c r="K51" s="87" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -9567,10 +9593,10 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="K52" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="K52" s="87" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -9582,33 +9608,33 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="19" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="K53" s="87" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="H54" s="47"/>
       <c r="I54" s="47"/>
@@ -9616,37 +9642,37 @@
       <c r="K54" s="34"/>
     </row>
     <row r="55" spans="1:11" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
       <c r="J55" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
       <c r="J56" s="27" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="71" t="s">
-        <v>164</v>
+      <c r="A57" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>17</v>
@@ -9655,13 +9681,13 @@
         <v>18</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="H57" s="47"/>
       <c r="I57" s="47"/>
@@ -9674,12 +9700,12 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="K58" s="68" t="s">
-        <v>169</v>
+      <c r="I58" s="68"/>
+      <c r="J58" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="K58" s="67" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -9692,15 +9718,15 @@
         <v>22</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="71" t="s">
-        <v>170</v>
+      <c r="A60" s="70" t="s">
+        <v>149</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>17</v>
@@ -9709,31 +9735,31 @@
         <v>18</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="H60" s="47"/>
       <c r="I60" s="47"/>
       <c r="J60" s="34"/>
       <c r="K60" s="34"/>
     </row>
-    <row r="61" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="K61" s="68" t="s">
-        <v>176</v>
+    <row r="61" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="K61" s="87" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -9746,7 +9772,7 @@
         <v>22</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -9756,10 +9782,10 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="J63" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>52</v>
+        <v>152</v>
+      </c>
+      <c r="K63" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -9769,33 +9795,33 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="J64" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="K64" s="19" t="s">
-        <v>54</v>
+        <v>153</v>
+      </c>
+      <c r="K64" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="H65" s="47"/>
       <c r="I65" s="47"/>
@@ -9803,52 +9829,52 @@
       <c r="K65" s="34"/>
     </row>
     <row r="66" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
       <c r="J66" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
       <c r="J67" s="27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="H68" s="47"/>
       <c r="I68" s="47"/>
@@ -9856,37 +9882,37 @@
       <c r="K68" s="34"/>
     </row>
     <row r="69" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
       <c r="J69" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
       <c r="J70" s="27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>17</v>
@@ -9895,48 +9921,48 @@
         <v>18</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="H71" s="47"/>
       <c r="I71" s="47"/>
       <c r="J71" s="34"/>
       <c r="K71" s="34"/>
     </row>
-    <row r="72" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="70"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
+    <row r="72" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
       <c r="J72" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
       <c r="J73" s="27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -10479,17 +10505,17 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>